--- a/FeedExcel.xlsx
+++ b/FeedExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nveerati\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbhanukiran\Desktop\MAGNETIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23601BF-B02A-4FA2-B718-64AEBF4BE15D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{388E6F42-B831-4F3A-88E3-5D2192E2766B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{90634E2E-5A64-4DFF-8E1A-B5320AA84D57}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{90634E2E-5A64-4DFF-8E1A-B5320AA84D57}"/>
   </bookViews>
   <sheets>
     <sheet name="MAPPING" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="SLA_CONFIG" sheetId="10" r:id="rId6"/>
     <sheet name="RUN_HISTORY_TABLES" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="163">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -63,9 +63,6 @@
     <t>RUN_HISTORY_TABLES</t>
   </si>
   <si>
-    <t>CD_HISTORICAL</t>
-  </si>
-  <si>
     <t>dbo</t>
   </si>
   <si>
@@ -523,6 +520,12 @@
   </si>
   <si>
     <t>PROMOS</t>
+  </si>
+  <si>
+    <t>CD_ADMIN</t>
+  </si>
+  <si>
+    <t>CD_RAW</t>
   </si>
 </sst>
 </file>
@@ -876,19 +879,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA25459-81AA-4DA5-B23F-C156511FBD56}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -902,88 +903,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -999,70 +1000,70 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1071,39 +1072,39 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>39</v>
       </c>
-      <c r="M2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1112,39 +1113,39 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>39</v>
       </c>
-      <c r="M3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1153,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
         <v>38</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1178,49 +1179,49 @@
       <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
         <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1232,24 +1233,24 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
         <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -1261,24 +1262,24 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
         <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1290,24 +1291,24 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
         <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1319,24 +1320,24 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
         <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1348,7 +1349,7 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1367,388 +1368,388 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>79</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>83</v>
       </c>
-      <c r="F3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
         <v>85</v>
       </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>86</v>
       </c>
-      <c r="F4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
         <v>88</v>
       </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>89</v>
       </c>
-      <c r="F5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
         <v>91</v>
       </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>92</v>
       </c>
-      <c r="F6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>95</v>
       </c>
-      <c r="F7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>98</v>
       </c>
-      <c r="F8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
         <v>100</v>
       </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>101</v>
       </c>
-      <c r="F9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
         <v>103</v>
       </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>104</v>
       </c>
-      <c r="F10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
         <v>106</v>
       </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>107</v>
       </c>
-      <c r="F11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
         <v>109</v>
       </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>110</v>
       </c>
-      <c r="F12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
         <v>112</v>
       </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>113</v>
       </c>
-      <c r="F13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
         <v>115</v>
       </c>
-      <c r="C14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>116</v>
       </c>
-      <c r="F14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
         <v>118</v>
       </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>119</v>
       </c>
-      <c r="F15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>28</v>
       </c>
       <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
         <v>122</v>
       </c>
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>123</v>
       </c>
-      <c r="F17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>50</v>
       </c>
       <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
         <v>125</v>
       </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>126</v>
       </c>
-      <c r="F18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>51</v>
       </c>
       <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
         <v>128</v>
       </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>129</v>
-      </c>
-      <c r="F19" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1764,118 +1765,118 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>134</v>
       </c>
-      <c r="D2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
         <v>136</v>
       </c>
-      <c r="D3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
         <v>138</v>
       </c>
-      <c r="D4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
         <v>140</v>
       </c>
-      <c r="D5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" t="s">
         <v>144</v>
-      </c>
-      <c r="D8" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1891,73 +1892,73 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
         <v>146</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>147</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>148</v>
       </c>
-      <c r="D1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
         <v>150</v>
-      </c>
-      <c r="C2" t="s">
-        <v>151</v>
       </c>
       <c r="D2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5">
         <v>1000</v>
@@ -1972,175 +1973,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C39CC13-C120-4482-A34E-E7618AF29D24}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
         <v>133</v>
       </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>15</v>
       </c>
       <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
         <v>159</v>
       </c>
-      <c r="C14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/FeedExcel.xlsx
+++ b/FeedExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbhanukiran\Desktop\MAGNETIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{388E6F42-B831-4F3A-88E3-5D2192E2766B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A169AEC2-3F32-4CE9-BF5E-95405BFA9C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{90634E2E-5A64-4DFF-8E1A-B5320AA84D57}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="157">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -70,24 +70,6 @@
   </si>
   <si>
     <t>DATA_FEED_MAPPING</t>
-  </si>
-  <si>
-    <t>FRIENDLY_TEST</t>
-  </si>
-  <si>
-    <t>HIGH_DATE_TABLES_TEST</t>
-  </si>
-  <si>
-    <t>SLA_CONFIG_TEST</t>
-  </si>
-  <si>
-    <t>RUN_HISTORY_TABLES_TEST</t>
-  </si>
-  <si>
-    <t>DATA_FEED_CATALOG_TEST</t>
-  </si>
-  <si>
-    <t>DATA_FEED_MAPPING_TEST</t>
   </si>
   <si>
     <t>CATALOG_ID</t>
@@ -908,13 +890,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -922,13 +904,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -936,13 +918,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -950,13 +932,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -964,13 +946,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -978,13 +960,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1004,43 +986,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1048,22 +1030,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1072,16 +1054,16 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -1089,22 +1071,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1113,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -1130,22 +1112,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1154,16 +1136,16 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1183,31 +1165,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1215,13 +1197,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1233,7 +1215,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1244,13 +1226,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -1262,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1273,13 +1255,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1291,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1302,13 +1284,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1320,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1331,13 +1313,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1349,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1380,22 +1362,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1403,19 +1385,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1423,19 +1405,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
         <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1443,19 +1425,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1463,19 +1445,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1483,19 +1465,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1503,19 +1485,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1523,19 +1505,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1543,19 +1525,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1563,19 +1545,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1583,19 +1565,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1603,19 +1585,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1623,19 +1605,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1643,19 +1625,19 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1663,19 +1645,19 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1683,13 +1665,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1697,19 +1679,19 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1717,19 +1699,19 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1737,19 +1719,19 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1769,16 +1751,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1786,13 +1768,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1800,13 +1782,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1814,13 +1796,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
         <v>132</v>
-      </c>
-      <c r="C4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1828,13 +1810,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1842,13 +1824,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1856,13 +1838,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" t="s">
         <v>132</v>
-      </c>
-      <c r="C7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1870,13 +1852,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1896,16 +1878,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1913,10 +1895,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -1927,10 +1909,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -1941,10 +1923,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D4">
         <v>1000</v>
@@ -1955,10 +1937,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D5">
         <v>1000</v>
@@ -1981,10 +1963,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1995,10 +1977,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2006,10 +1988,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2017,10 +1999,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2028,10 +2010,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2039,10 +2021,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2050,10 +2032,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2061,10 +2043,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2072,10 +2054,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2083,10 +2065,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -2094,10 +2076,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2105,10 +2087,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2116,10 +2098,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2127,10 +2109,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2138,10 +2120,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
